--- a/biology/Médecine/Martin_Staemmler/Martin_Staemmler.xlsx
+++ b/biology/Médecine/Martin_Staemmler/Martin_Staemmler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Staemmler, né le 23 octobre 1890 à Duschnik (province de Posnanie) et décédé le 6 juin 1974 (à 83 ans) à Kiel, est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le troisième d'une famille de huit enfants, fils du pasteur Johannes Staemmler. D'abord scolarisé à Bromberg, Gnesen puis Posen, il étudie ensuite la médecine dans différentes universités allemandes, dont Berlin où il obtient finalement son doctorat.
 Staemmler sert en tant que médecin de bataillon à partir de 1915, durant la Première Guerre mondiale. Il obtient en 1922 une habilitation pour l'anatomie pathologique à Göttingen. En 1926, il devient professeur extraordinaire à Giessen et en 1927 directeur de l'Institut de pathologie et d'hygiène de la ville de Chemnitz. Il acquiert en 1928 une chaire à l'université de Leipzig.
@@ -545,7 +559,9 @@
           <t>Écrits (liste incomplète)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Rassenpflege im völkischen Staat. München: Lehmann 1933
 (de) (avec Alfred Kühn et Friedrich Burgdörfer) Erbkunde, Rassenpflege, Bevölkerungspolitik: Schicksalsfragen des deutschen Volkes. Leipzig: Quelle &amp; Meyer 1935
